--- a/barlog-input.xlsx
+++ b/barlog-input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bioassets_regulatory/Documents/Code/graphing-tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F71BADC-FDF2-F04C-9F1A-4987595D8B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB27F9C5-8E11-F54D-8B83-BD74542A6882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="3" xr2:uid="{65C9F685-B607-2A48-895E-77BDAE9A5131}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" activeTab="3" xr2:uid="{65C9F685-B607-2A48-895E-77BDAE9A5131}"/>
   </bookViews>
   <sheets>
     <sheet name="Bacillus subtilis" sheetId="1" r:id="rId1"/>
@@ -110,14 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -456,7 +452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ED6051-26D8-D64C-8011-E4AF0855AA87}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -525,9 +523,7 @@
       <c r="B3" s="2">
         <v>80000</v>
       </c>
-      <c r="C3" s="2">
-        <v>12000</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>1600000</v>
       </c>
@@ -535,16 +531,16 @@
         <v>1200000</v>
       </c>
       <c r="F3" s="2">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -564,16 +560,16 @@
         <v>1000000</v>
       </c>
       <c r="F4" s="2">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -644,182 +640,182 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>200000</v>
-      </c>
-      <c r="C3" s="4">
-        <v>200000</v>
-      </c>
-      <c r="D3" s="4">
-        <v>200000</v>
-      </c>
-      <c r="E3" s="4">
-        <v>200000</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2000</v>
-      </c>
-      <c r="I3" s="4">
-        <v>2000</v>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>200000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>200000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
-        <v>200000</v>
-      </c>
-      <c r="C4" s="4">
-        <v>200000</v>
-      </c>
-      <c r="D4" s="4">
-        <v>200000</v>
-      </c>
-      <c r="E4" s="4">
-        <v>200000</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2000</v>
-      </c>
-      <c r="I4" s="4">
-        <v>2000</v>
+      <c r="B4" s="2">
+        <v>200000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>200000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>14</v>
       </c>
-      <c r="B5" s="4">
-        <v>200000</v>
-      </c>
-      <c r="C5" s="4">
-        <v>200000</v>
-      </c>
-      <c r="D5" s="4">
-        <v>200000</v>
-      </c>
-      <c r="E5" s="4">
-        <v>200000</v>
-      </c>
-      <c r="F5" s="4">
-        <v>400000</v>
-      </c>
-      <c r="G5" s="4">
-        <v>400000</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2000</v>
-      </c>
-      <c r="I5" s="4">
-        <v>2000</v>
+      <c r="B5" s="2">
+        <v>200000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>200000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>400000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>400000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>21</v>
       </c>
-      <c r="B6" s="4">
-        <v>200000</v>
-      </c>
-      <c r="C6" s="4">
-        <v>200000</v>
-      </c>
-      <c r="D6" s="4">
-        <v>400000</v>
-      </c>
-      <c r="E6" s="4">
-        <v>400000</v>
-      </c>
-      <c r="F6" s="4">
-        <v>400000</v>
-      </c>
-      <c r="G6" s="4">
-        <v>400000</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="B6" s="2">
+        <v>200000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>400000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>400000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>400000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>400000</v>
+      </c>
+      <c r="H6" s="2">
         <v>20000</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>20000</v>
       </c>
     </row>
@@ -833,182 +829,182 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>200000</v>
-      </c>
-      <c r="C3" s="4">
-        <v>200000</v>
-      </c>
-      <c r="D3" s="4">
-        <v>400000</v>
-      </c>
-      <c r="E3" s="4">
-        <v>400000</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2000</v>
-      </c>
-      <c r="I3" s="4">
-        <v>2000</v>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>200000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>400000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>400000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>160000</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>240000</v>
       </c>
-      <c r="D4" s="4">
-        <v>400000</v>
-      </c>
-      <c r="E4" s="4">
-        <v>400000</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2000</v>
-      </c>
-      <c r="I4" s="4">
-        <v>2000</v>
+      <c r="D4" s="2">
+        <v>400000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>400000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>14</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>600000</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>600000</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>800000</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>800000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>60000</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>60000</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>100000</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>21</v>
       </c>
-      <c r="B6" s="4">
-        <v>200000</v>
-      </c>
-      <c r="C6" s="4">
-        <v>200000</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6" s="2">
+        <v>200000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D6" s="2">
         <v>600000</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>600000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>40000</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>80000</v>
       </c>
-      <c r="H6" s="4">
-        <v>200000</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="H6" s="2">
+        <v>200000</v>
+      </c>
+      <c r="I6" s="2">
         <v>200000</v>
       </c>
     </row>
@@ -1022,182 +1018,182 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
         <v>160000</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>160000</v>
       </c>
-      <c r="D3" s="4">
-        <v>400000</v>
-      </c>
-      <c r="E3" s="4">
-        <v>400000</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2000</v>
-      </c>
-      <c r="I3" s="4">
-        <v>2000</v>
+      <c r="D3" s="2">
+        <v>400000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>400000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>40000</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>40000</v>
       </c>
-      <c r="D4" s="4">
-        <v>400000</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="2">
+        <v>400000</v>
+      </c>
+      <c r="E4" s="2">
         <v>800000</v>
       </c>
-      <c r="F4" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
         <v>100000</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>14</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>40000</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>80000</v>
       </c>
-      <c r="D5" s="4">
-        <v>200000</v>
-      </c>
-      <c r="E5" s="4">
-        <v>200000</v>
-      </c>
-      <c r="F5" s="4">
-        <v>400000</v>
-      </c>
-      <c r="G5" s="4">
-        <v>400000</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="D5" s="2">
+        <v>200000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>400000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>400000</v>
+      </c>
+      <c r="H5" s="2">
         <v>80000</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>80000</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>21</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>80000</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>80000</v>
       </c>
-      <c r="D6" s="4">
-        <v>200000</v>
-      </c>
-      <c r="E6" s="4">
-        <v>200000</v>
-      </c>
-      <c r="F6" s="4">
-        <v>200000</v>
-      </c>
-      <c r="G6" s="4">
-        <v>200000</v>
-      </c>
-      <c r="H6" s="4">
-        <v>200000</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="D6" s="2">
+        <v>200000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>200000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>200000</v>
+      </c>
+      <c r="I6" s="2">
         <v>200000</v>
       </c>
     </row>
